--- a/nodes_source_analyses/energy/energy/energy_heat_flexibility_p2h_boiler_ht_electricity.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_heat_flexibility_p2h_boiler_ht_electricity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Github/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA98F52-7517-A640-9FBA-599AF064C42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0536B43-A274-E544-8A29-3045A8D4A07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8920" yWindow="-17220" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="155">
   <si>
     <t>Source</t>
   </si>
@@ -629,6 +629,9 @@
       <t>steam_hot_water</t>
     </r>
   </si>
+  <si>
+    <t>Set to 1 because it is overwritten by temperature-dependent behaviour</t>
+  </si>
 </sst>
 </file>
 
@@ -639,12 +642,19 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1212,795 +1222,795 @@
   </borders>
   <cellStyleXfs count="484">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="484">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3429,7 +3439,7 @@
   <dimension ref="A2:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3447,49 +3457,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="166"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="188"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="167"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="169"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="191"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="167"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="170"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="172"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="194"/>
     </row>
     <row r="7" spans="1:11" ht="17" thickBot="1"/>
     <row r="8" spans="1:11">
-      <c r="B8" s="174"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
     </row>
     <row r="9" spans="1:11" s="13" customFormat="1">
-      <c r="B9" s="177"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="178" t="s">
+      <c r="D9" s="169" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -3503,20 +3513,20 @@
       <c r="I9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="179"/>
+      <c r="J9" s="170"/>
     </row>
     <row r="10" spans="1:11" s="13" customFormat="1">
       <c r="B10" s="20"/>
-      <c r="D10" s="180"/>
-      <c r="J10" s="181"/>
+      <c r="D10" s="171"/>
+      <c r="J10" s="172"/>
     </row>
     <row r="11" spans="1:11" s="13" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="180"/>
-      <c r="J11" s="181"/>
+      <c r="D11" s="171"/>
+      <c r="J11" s="172"/>
     </row>
     <row r="12" spans="1:11" ht="17" thickBot="1">
       <c r="A12" s="13"/>
@@ -3539,13 +3549,13 @@
       <c r="I12" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="181"/>
+      <c r="J12" s="172"/>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="13"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="194" t="s">
+      <c r="C13" s="185" t="s">
         <v>153</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -3563,13 +3573,13 @@
       <c r="I13" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="181"/>
+      <c r="J13" s="172"/>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="86"/>
       <c r="B14" s="87"/>
-      <c r="C14" s="182" t="s">
+      <c r="C14" s="173" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -3587,12 +3597,12 @@
       <c r="I14" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="190"/>
+      <c r="J14" s="181"/>
     </row>
     <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="86"/>
       <c r="B15" s="87"/>
-      <c r="C15" s="183" t="s">
+      <c r="C15" s="174" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -3608,7 +3618,7 @@
       <c r="I15" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="J15" s="190"/>
+      <c r="J15" s="181"/>
     </row>
     <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="B16" s="87"/>
@@ -3619,19 +3629,18 @@
         <v>2</v>
       </c>
       <c r="E16" s="142">
-        <f>'Research data'!H10</f>
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F16" s="84"/>
       <c r="G16" s="84"/>
       <c r="H16" s="84"/>
       <c r="I16" s="135" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="190"/>
+        <v>154</v>
+      </c>
+      <c r="J16" s="181"/>
     </row>
     <row r="17" spans="1:10" s="156" customFormat="1" ht="17" thickBot="1">
-      <c r="B17" s="184"/>
+      <c r="B17" s="175"/>
       <c r="C17" s="154" t="s">
         <v>135</v>
       </c>
@@ -3649,10 +3658,10 @@
         <f>'Research data'!N15</f>
         <v>This simulates instantaneous use</v>
       </c>
-      <c r="J17" s="191"/>
+      <c r="J17" s="182"/>
     </row>
     <row r="18" spans="1:10" s="156" customFormat="1" ht="17" thickBot="1">
-      <c r="B18" s="184"/>
+      <c r="B18" s="175"/>
       <c r="C18" s="154" t="s">
         <v>139</v>
       </c>
@@ -3670,20 +3679,20 @@
         <f>'Research data'!N18</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J18" s="191"/>
+      <c r="J18" s="182"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="185"/>
+      <c r="B19" s="176"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="192"/>
+      <c r="J19" s="183"/>
     </row>
     <row r="20" spans="1:10" ht="17" thickBot="1">
-      <c r="B20" s="185"/>
+      <c r="B20" s="176"/>
       <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
@@ -3693,10 +3702,10 @@
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
-      <c r="J20" s="192"/>
+      <c r="J20" s="183"/>
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1">
-      <c r="B21" s="185"/>
+      <c r="B21" s="176"/>
       <c r="C21" s="28" t="s">
         <v>22</v>
       </c>
@@ -3715,10 +3724,10 @@
       <c r="I21" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="192"/>
+      <c r="J21" s="183"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B22" s="185"/>
+      <c r="B22" s="176"/>
       <c r="C22" s="28" t="s">
         <v>23</v>
       </c>
@@ -3737,11 +3746,11 @@
       <c r="I22" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="J22" s="192"/>
+      <c r="J22" s="183"/>
     </row>
     <row r="23" spans="1:10" ht="17" thickBot="1">
-      <c r="B23" s="186"/>
-      <c r="C23" s="187" t="s">
+      <c r="B23" s="177"/>
+      <c r="C23" s="178" t="s">
         <v>85</v>
       </c>
       <c r="D23" s="103" t="s">
@@ -3759,11 +3768,11 @@
       <c r="I23" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="J23" s="193"/>
+      <c r="J23" s="184"/>
     </row>
     <row r="24" spans="1:10" ht="17" thickBot="1">
-      <c r="B24" s="186"/>
-      <c r="C24" s="187" t="s">
+      <c r="B24" s="177"/>
+      <c r="C24" s="178" t="s">
         <v>83</v>
       </c>
       <c r="D24" s="103" t="s">
@@ -3778,14 +3787,14 @@
         <v>87</v>
       </c>
       <c r="H24" s="104"/>
-      <c r="I24" s="173" t="s">
+      <c r="I24" s="164" t="s">
         <v>148</v>
       </c>
-      <c r="J24" s="193"/>
+      <c r="J24" s="184"/>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1">
-      <c r="B25" s="186"/>
-      <c r="C25" s="187" t="s">
+      <c r="B25" s="177"/>
+      <c r="C25" s="178" t="s">
         <v>84</v>
       </c>
       <c r="D25" s="103" t="s">
@@ -3803,11 +3812,11 @@
       <c r="I25" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="J25" s="193"/>
+      <c r="J25" s="184"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1">
-      <c r="B26" s="186"/>
-      <c r="C26" s="188" t="s">
+      <c r="B26" s="177"/>
+      <c r="C26" s="179" t="s">
         <v>94</v>
       </c>
       <c r="D26" s="103" t="s">
@@ -3825,11 +3834,11 @@
       <c r="I26" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="193"/>
+      <c r="J26" s="184"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1">
-      <c r="B27" s="186"/>
-      <c r="C27" s="187" t="s">
+      <c r="B27" s="177"/>
+      <c r="C27" s="178" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="103" t="s">
@@ -3844,10 +3853,10 @@
         <v>90</v>
       </c>
       <c r="H27" s="104"/>
-      <c r="I27" s="173" t="s">
+      <c r="I27" s="164" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="193"/>
+      <c r="J27" s="184"/>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1">
       <c r="A28" s="86"/>
@@ -3869,7 +3878,7 @@
       <c r="I28" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="J28" s="190"/>
+      <c r="J28" s="181"/>
     </row>
     <row r="29" spans="1:10" ht="17" thickBot="1">
       <c r="A29" s="86"/>
@@ -3889,12 +3898,12 @@
       <c r="I29" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="J29" s="190"/>
+      <c r="J29" s="181"/>
     </row>
     <row r="30" spans="1:10" ht="17" thickBot="1">
       <c r="A30" s="86"/>
       <c r="B30" s="87"/>
-      <c r="C30" s="189" t="s">
+      <c r="C30" s="180" t="s">
         <v>146</v>
       </c>
       <c r="D30" s="19" t="s">
@@ -3909,7 +3918,7 @@
       <c r="I30" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="J30" s="190"/>
+      <c r="J30" s="181"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="86"/>
@@ -3921,7 +3930,7 @@
       <c r="G31" s="84"/>
       <c r="H31" s="84"/>
       <c r="I31" s="84"/>
-      <c r="J31" s="190"/>
+      <c r="J31" s="181"/>
     </row>
     <row r="32" spans="1:10" ht="17" thickBot="1">
       <c r="A32" s="86"/>
@@ -3935,7 +3944,7 @@
       <c r="G32" s="29"/>
       <c r="H32" s="84"/>
       <c r="I32" s="84"/>
-      <c r="J32" s="190"/>
+      <c r="J32" s="181"/>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="86"/>
@@ -3958,7 +3967,7 @@
       <c r="I33" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="J33" s="190"/>
+      <c r="J33" s="181"/>
     </row>
     <row r="34" spans="1:10" ht="17" thickBot="1">
       <c r="A34" s="86"/>
@@ -3979,7 +3988,7 @@
       </c>
       <c r="H34" s="84"/>
       <c r="I34" s="141"/>
-      <c r="J34" s="190"/>
+      <c r="J34" s="181"/>
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="86"/>
@@ -3999,7 +4008,7 @@
       <c r="I35" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="J35" s="190"/>
+      <c r="J35" s="181"/>
     </row>
     <row r="36" spans="1:10" ht="17" thickBot="1">
       <c r="A36" s="86"/>
@@ -5309,7 +5318,7 @@
       <c r="H30" s="129"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="J21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
